--- a/ReadExcelData/Resources/SalesData.xlsx
+++ b/ReadExcelData/Resources/SalesData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
   <si>
     <t xml:space="preserve">Rep</t>
   </si>
@@ -213,10 +213,10 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A2 C3"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -306,9 +306,7 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="5" t="n">
         <v>60</v>
       </c>
